--- a/medicine/Enfance/Nelly_Blumenthal/Nelly_Blumenthal.xlsx
+++ b/medicine/Enfance/Nelly_Blumenthal/Nelly_Blumenthal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nelly Blumenthal (également nommée Nelly Charles-Blumenthal) est une graphiste et illustratrice de livres pour la jeunesse, née en 1968 à Nantua, dans l'Ain. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nelly Charles Blumenthal, née à Nantua, étudie à l’école des Arts Appliqués de Lyon[1]. Elle exerce d'abord en tant que graphiste, puis   commence à écrire et dessiner pour la jeunesse en 2009. Elle anime également des ateliers d'arts plastiques.
-Elle habite actuellement à Paris[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nelly Charles Blumenthal, née à Nantua, étudie à l’école des Arts Appliqués de Lyon. Elle exerce d'abord en tant que graphiste, puis   commence à écrire et dessiner pour la jeunesse en 2009. Elle anime également des ateliers d'arts plastiques.
+Elle habite actuellement à Paris,.
 </t>
         </is>
       </c>
@@ -543,15 +557,86 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a écrit et illustré une dizaine d'ouvrages[3],[4] :
-Autrice
-2013 :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a écrit et illustré une dizaine d'ouvrages, :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nelly_Blumenthal</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nelly_Blumenthal</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2013 :
 Une animalerie, Éditions du Centre Pompidou.
-Un abécédaire, Éditions du Centre Pompidou.
-Illustratrice de littérature jeunesse
-2008 : Péronnille la chevalière, Marie Darrieussecq, Albin Michel Jeunesse  (ISBN 9782226189400)
+Un abécédaire, Éditions du Centre Pompidou.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nelly_Blumenthal</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nelly_Blumenthal</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Illustratrice de littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2008 : Péronnille la chevalière, Marie Darrieussecq, Albin Michel Jeunesse  (ISBN 9782226189400)
 2010 : Petit Malabar raconte la lune, la terre et le soleil, Jean Duprat, Albin Michel Jeunesse.
 2011 : Petit Malabar raconte l'air, les mers et les volcans, Jean Duprat, Albin Michel Jeunesse.
 2016 : Le Chien Croquette, Marie Darrieussecq, Albin Michel Jeunesse.  (ISBN 9782226392350)
